--- a/mikvaot.xlsx
+++ b/mikvaot.xlsx
@@ -624,7 +624,7 @@
           <t xml:space="preserve"> 
 ימי חול-
 פתיחה: לפי זמן הדלקת נרות שבת
-סגירה: בקיץ  בשעה 22:00 , בחורף בשעה 21:30
+סגירה: בקיץ  בשעה 22:30, בחורף בשעה 21:30
 ליל שבת וחג-
 פתיחה: חצי שעה אחרי הדלקת נרות
 סגירה: שעה וחצי לאחר הדלקת נרות
@@ -805,7 +805,68 @@
           <t xml:space="preserve"> 
 ימי חול-
 פתיחה: לפי זמן הדלקת נרות שבת
-סגירה:  בשעה 22:00
+סגירה:  בקיץ בשעה 22:30  ובחורף 21:30
+ליל שבת וחג-
+פתיחה: חצי שעה אחרי הדלקת נרות
+סגירה: שעה וחצי לאחר הדלקת נרות
+מוצאי שבת וחג-
+פתיחה: חצי שעה אחרי צאת שבת
+סגירה: בקיץ: שעתיים וחצי לאחר הפתיחה. בחורף : בשעה 21:00
+                    </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6965166
+                    </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">רחל מורדו 052-6218097
+                    </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%9b%d7%a4%d7%99%d7%a8/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>כפיר</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">בושם 56, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ימי חול-
+פתיחה: לפי זמן הדלקת נרות שבת
+סגירה: בקיץ  בשעה 22:30 , בחורף בשעה 21:30
 ליל שבת וחג-
 פתיחה: חצי שעה אחרי הדלקת נרות
 סגירה: שעה וחצי לאחר הדלקת נרות
@@ -815,58 +876,58 @@
                     </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6965166
-                    </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">רחל מורדו 052-6218097
-                    </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%9b%d7%a4%d7%99%d7%a8/</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>כפיר</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">בושם 56, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6319535
+                    </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">יעקוב-פור אילנה
+                    </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%9e%d7%a8%d7%9b%d7%96-%d7%99%d7%91%d7%a0%d7%94/</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>מרכז-יבנה</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>חב"ד, מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">יבנה 10, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
 פתיחה: לפי זמן הדלקת נרות שבת
-סגירה: בקיץ  בשעה 22:30 , בחורף בשעה 21:30
+סגירה:  בקיץ בשעה 22:30  , בחורף 21:30
 ליל שבת וחג-
 פתיחה: חצי שעה אחרי הדלקת נרות
 סגירה: שעה וחצי לאחר הדלקת נרות
@@ -876,58 +937,58 @@
                     </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6319535
-                    </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">יעקוב-פור אילנה
-                    </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%9e%d7%a8%d7%9b%d7%96-%d7%99%d7%91%d7%a0%d7%94/</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>מרכז-יבנה</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>חב"ד, מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">יבנה 10, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6296512
+                    </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הדסה לביא
+                    </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%94-%d7%a9%d7%a8%d7%aa/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>נוה שרת</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ראול ולנברג 37, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
 פתיחה: לפי זמן הדלקת נרות שבת
-סגירה:  בקיץ בשעה 22:30  , בחורף 21:30
+סגירה: בקיץ  בשעה 22:30 , בחורף בשעה 21:30
 ליל שבת וחג-
 פתיחה: חצי שעה אחרי הדלקת נרות
 סגירה: שעה וחצי לאחר הדלקת נרות
@@ -937,53 +998,55 @@
                     </t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6296512
-                    </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הדסה לביא
-                    </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%94-%d7%a9%d7%a8%d7%aa/</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>נוה שרת</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ראול ולנברג 37, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6472626
+                    </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">גילה נתנאל
+                    </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+נגישות מלאה כולל מנוף
+מתאים לנכים
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%95%d7%94-%d7%a2%d7%95%d7%a4%d7%a8-%d7%aa%d7%9c-%d7%9b%d7%91%d7%99%d7%a8/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>נווה עופר-תל כביר</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>חב"ד, מקווה גברים, מקווה כלים, מתאים לנכים</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">אוריאל יעקובוב 4, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -998,53 +1061,54 @@
                     </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6472626
-                    </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">גילה נתנאל
-                    </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%95%d7%94-%d7%a2%d7%95%d7%a4%d7%a8-%d7%aa%d7%9c-%d7%9b%d7%91%d7%99%d7%a8/</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>נווה עופר-תל כביר</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-5187164
+                    </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">עמרני אסתר
+                    </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+נגישות מלאה
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%95%d7%94-%d7%a6%d7%93%d7%a7/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>נווה צדק</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>חב"ד, מקווה גברים, מקווה כלים, מתאים לנכים</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">אוריאל יעקובוב 4, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">פינס 24, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -1059,54 +1123,175 @@
                     </t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-5187164
-                    </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">שולמית רבי
-                    </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-נגישות מלאה
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a0%d7%95%d7%95%d7%94-%d7%a6%d7%93%d7%a7/</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>נווה צדק</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>חב"ד, מקווה גברים, מקווה כלים, מתאים לנכים</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">פינס 24, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-5108677
+                    </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">אהובה חבורה
+                    </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a2%d7%96%d7%a8%d7%90/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>עזרא</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים, מתאים לנכים</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">כסלו 23, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ימי חול-
+פתיחה: לפי זמן הדלקת נרות שבת
+סגירה:  בקיץ בשעה 22:30  , בחורף 21:30
+ליל שבת וחג-
+פתיחה: כחצי שעה אחרי זמן הדלקת נרות
+סגירה: שעה וחצי לאחר זמן הדלקת נרות
+מוצאי שבת וחג- 
+פתיחה: כחצי שעה לאחר צאת השבת
+סגירה:  בקיץ -שעתיים וחצי לאחר הפתיחה.
+           בחורף – עד השעה 21:00
+                    </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6876211
+                    </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ציונה אליאסי
+                    </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a2%d7%99%d7%9f-%d7%9e%d7%a8%d7%99%d7%9d/</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>עין מרים</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>חב"ד</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">בן יהודה 86, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ימי חול-
+פתיחה: לפי זמן הדלקת נרות שבת
+סגירה:  בקיץ בשעה 22:30  , בחורף 21:30
+ליל שבת וחג-
+פתיחה: כחצי שעה אחרי זמן הדלקת נרות
+סגירה: שעה וחצי לאחר זמן הדלקת נרות
+מוצאי שבת וחג- 
+פתיחה: כשעה לאחר צאת השבת
+סגירה:  בקיץ -שעתיים וחצי לאחר הפתיחה.
+           בחורף – עד השעה 21:00
+                    </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-5228188
+                    </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> שושנה נוקריאן
+                    </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a4%d7%a7%d7%99%d7%a2%d7%99%d7%9f/</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>פקיעין</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>מיוחד לכלות, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">פקיעין 12, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -1121,169 +1306,53 @@
                     </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-5108677
-                    </t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">אהובה חבורה
-                    </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a2%d7%96%d7%a8%d7%90/</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>עזרא</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים, מתאים לנכים</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">כסלו 23, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">המקווה
-המקוואות הסמוכים :
-מקווה כפיר רחוב הבושם 56 שכונת כפיר טל: 03-6319535
-מקווה יד אליהו רחוב שד' החייל 4 יד אליהו טל: 03-5371256
-מקווה שפירא רחוב חכמי ישראל 65 שפירא טל: 03-6880892
-                    </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6876211
-                    </t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ציונה אליאסי
-                    </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a2%d7%99%d7%9f-%d7%9e%d7%a8%d7%99%d7%9d/</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>עין מרים</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>חב"ד</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">בן יהודה 86, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ימי חול-
-פתיחה: לפי זמן הדלקת נרות שבת
-סגירה:  בקיץ בשעה 22:30  , בחורף 21:30
-ליל שבת וחג-
-פתיחה: חצי שעה אחרי הדלקת נרות
-סגירה: שעה וחצי לאחר הדלקת נרות
-מוצאי שבת וחג- פתיחה כשעה אחרי צאת שבת
-פתיחה: 45 דקות אחרי צאת שבת
-סגירה: שעתיים וחצי לאחר הפתיחה.
-                    </t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-5228188
-                    </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> שושנה נוקריאן
-                    </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a4%d7%a7%d7%99%d7%a2%d7%99%d7%9f/</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>פקיעין</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>מיוחד לכלות, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">פקיעין 18, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-5464899
+                    </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">שרה עוזר
+                    </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a6%d7%a4%d7%95%d7%9f/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>צפון- צירלסון</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">צירלסון 10, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -1298,53 +1367,53 @@
                     </t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-5464899
-                    </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">שרה עוזר
-                    </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a6%d7%a4%d7%95%d7%9f/</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>צפון- צירלסון</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">צירלסון 10, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-5468893
+                    </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ברכה ממון
+                    </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a7%d7%a8%d7%99%d7%aa-%d7%a9%d7%9c%d7%95%d7%9d/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>קרית שלום</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים, מתאים לנכים</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">החזיון 3, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -1359,114 +1428,178 @@
                     </t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-5468893
-                    </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ברכה ממון
-                    </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a7%d7%a8%d7%99%d7%aa-%d7%a9%d7%9c%d7%95%d7%9d/</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>קרית שלום</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים, מתאים לנכים</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">החזיון 3, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6817093
+                    </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">יפה משדי
+                    </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a8%d7%9e%d7%aa-%d7%90%d7%91%d7%99%d7%91/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>רמת אביב</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>חב"ד, מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">טאגור 32, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
 פתיחה: לפי זמן הדלקת נרות שבת
 סגירה: בקיץ  בשעה 22:30 , בחורף בשעה 21:30
+ליל שבת וחג-
+פתיחה: חצי שעה אחרי הדלקת נרות
+סגירה: שעה וחצי לאחר הדלקת נרות
+מוצאי שבת וחג-
+פתיחה: שעה אחרי צאת שבת
+סגירה: שעתיים וחצי לאחר הפתיחה.
+                    </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6439725
+                    </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">אושקי מרגלית
+                    </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a8%d7%9e%d7%aa-%d7%94%d7%97%d7%99%d7%99%d7%9c/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>רמת החייל</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>מקווה כלים, מתאים לנכים</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הט"ז 8, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ימי חול-
+פתיחה: לפי זמן הדלקת נרות שבת
+סגירה: בקיץ בשעה 22:30, בחורף בשעה 21:30
 ליל שבת וחג-
 פתיחה: חצי שעה אחרי הדלקת נרות
 סגירה: שעה וחצי לאחר הדלקת נרות
 מוצאי שבת וחג-
 פתיחה: 45 דקות אחרי צאת שבת
 סגירה: שעתיים וחצי לאחר הפתיחה.
-                    </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6817093
-                    </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">יפה משדי
-                    </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a8%d7%9e%d7%aa-%d7%90%d7%91%d7%99%d7%91/</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>רמת אביב</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>חב"ד, מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">טאגור 32, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+נגישות מלאה כולל מנוף
+                    </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03-6470623
+                    </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">מרים ענזרות
+                    </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">תחבורה ציבורית
+יבוש שיער
+אמבטיה
+מגבות
+כלה בשנה הראשונה חינם
+פתוח במוצ"ש
+נגישות מלאה כולל מנוף
+מתאים לנכים
+                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://rabanut.co.il/mikvah/%d7%a9%d7%a4%d7%99%d7%a8%d7%90/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>שפירא</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>מקווה גברים, מקווה כלים</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">חכמי ישראל 65, תל אביב יפו
+                    </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ימי חול-
@@ -1481,129 +1614,6 @@
                     </t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6439725
-                    </t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">אושקי מרגלית
-                    </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a8%d7%9e%d7%aa-%d7%94%d7%97%d7%99%d7%99%d7%9c/</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>רמת החייל</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>מקווה כלים, מתאים לנכים</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הט"ז 8, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ימי חול-
-פתיחה: לפי זמן הדלקת נרות שבת
-סגירה: בקיץ בשעה 22:00 , בחורף בשעה 21:00
-ליל שבת וחג-
-פתיחה: חצי שעה אחרי הדלקת נרות
-סגירה: שעה וחצי לאחר הדלקת נרות
-מוצאי שבת וחג-
-פתיחה: 45 דקות אחרי צאת שבת
-סגירה: שעתיים וחצי לאחר הפתיחה.
-                    </t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03-6470623
-                    </t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">מרים ענזרות
-                    </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">תחבורה ציבורית
-יבוש שיער
-אמבטיה
-מגבות
-כלה בשנה הראשונה חינם
-פתוח במוצ"ש
-נגישות מלאה
-                    </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://rabanut.co.il/mikvah/%d7%a9%d7%a4%d7%99%d7%a8%d7%90/</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>שפירא</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>מקווה גברים, מקווה כלים</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">חכמי ישראל 65, תל אביב יפו
-                    </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ימי חול-
-פתיחה: לפי זמן הדלקת נרות שבת
-סגירה: בקיץ  בשעה 22:30 , בחורף בשעה 21:30
-ליל שבת וחג-
-פתיחה: חצי שעה אחרי הדלקת נרות
-סגירה: שעה וחצי לאחר הדלקת נרות
-מוצאי שבת וחג-
-פתיחה: 45 דקות אחרי צאת שבת
-סגירה: שעתיים וחצי לאחר הפתיחה.
-                    </t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">03-6880892
